--- a/Documentation/TestCaseTable.xlsx
+++ b/Documentation/TestCaseTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\Second Year\ITS\INDIVIDUAL PROJECT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\Second Year\ITS\INDIVIDUAL PROJECT\simplehomes-s3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD5202E-0E33-4F0C-8DCD-54781525DDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CBFF89-1F65-4CC5-A8A5-27CDE51573DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{6B7E2DC7-9843-404D-A7AE-4406DCB0DAA1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>The property is uploaded with the provided information</t>
+  </si>
+  <si>
+    <t>TC-05</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -465,6 +468,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -472,19 +486,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,7 +814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1827F5-D472-40C7-A175-3104A17D2126}">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="B2:G6"/>
@@ -808,112 +822,119 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="7.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/TestCaseTable.xlsx
+++ b/Documentation/TestCaseTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\Second Year\ITS\INDIVIDUAL PROJECT\simplehomes-s3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CBFF89-1F65-4CC5-A8A5-27CDE51573DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A62F0CC-BA69-4B16-A715-7FB6FAC6088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{6B7E2DC7-9843-404D-A7AE-4406DCB0DAA1}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6B7E2DC7-9843-404D-A7AE-4406DCB0DAA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="B2:G6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
